--- a/medicine/Psychotrope/Caféiculture_en_République_dominicaine/Caféiculture_en_République_dominicaine.xlsx
+++ b/medicine/Psychotrope/Caféiculture_en_République_dominicaine/Caféiculture_en_République_dominicaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9iculture_en_R%C3%A9publique_dominicaine</t>
+          <t>Caféiculture_en_République_dominicaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production de café dans la République dominicaine est basée principalement dans les régions de montagne du pays, qui forment au moins la moitié de la superficie de l'île d'Hispaniola. Introduites dans le pays en 1715, la fève est plus grande et plus épaisse que celle que l'on peut trouver en Martinique[1].
-La principale variété de café cultivé dans le pays est l'arabica. Le robusta est également cultivé, mais seulement sur environ 1,3 % de la superficie du terrain ; elle est consommée localement[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production de café dans la République dominicaine est basée principalement dans les régions de montagne du pays, qui forment au moins la moitié de la superficie de l'île d'Hispaniola. Introduites dans le pays en 1715, la fève est plus grande et plus épaisse que celle que l'on peut trouver en Martinique.
+La principale variété de café cultivé dans le pays est l'arabica. Le robusta est également cultivé, mais seulement sur environ 1,3 % de la superficie du terrain ; elle est consommée localement.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9iculture_en_R%C3%A9publique_dominicaine</t>
+          <t>Caféiculture_en_République_dominicaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le café a été introduit en République dominicaine en 1715 et a été la principale culture des agriculteurs à petite échelle. Le café a commencé à être exportés vers 1872. Au début du XXe siècle, la récolte a été cultivé dans toutes les plaines du Cibao, principalement dans le quartier de Puerto Plata. L'exportation du café de la République dominicaine, en 1900, s'élève à 1 800 t.
 Les zones caféières importantes en 1918 ont été Moca, Santiago et Baní, avec environ 66 % des récoltes exportées à partir de Puerto Plata.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9iculture_en_R%C3%A9publique_dominicaine</t>
+          <t>Caféiculture_en_République_dominicaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, selon les statistiques de la FAO, la production de café a été 9 200 t, soit seulement environ 0,1 pour cent de la production mondiale, sur une surface de 22 400 ha avec un rendement de 451 kg par hectare[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, selon les statistiques de la FAO, la production de café a été 9 200 t, soit seulement environ 0,1 pour cent de la production mondiale, sur une surface de 22 400 ha avec un rendement de 451 kg par hectare.
 </t>
         </is>
       </c>
